--- a/python/Statistics/Results/classification_comparison_1979-2016.xlsx
+++ b/python/Statistics/Results/classification_comparison_1979-2016.xlsx
@@ -694,55 +694,52 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>15</v>
-      </c>
       <c r="T4">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -750,52 +747,55 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>353</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>81</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>8</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -924,52 +924,52 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>268</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="E9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="I9">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>9</v>
-      </c>
       <c r="T9">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -977,52 +977,52 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>447</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>86</v>
+      </c>
+      <c r="I10">
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <v>115</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
         <v>15</v>
-      </c>
-      <c r="D10">
-        <v>87</v>
-      </c>
-      <c r="E10">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>15</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1154,55 +1154,52 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>581</v>
+        <v>121</v>
       </c>
       <c r="E14">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="I14">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="J14">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S14">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1210,52 +1207,55 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>401</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>121</v>
+        <v>581</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="J15">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
       </c>
       <c r="O15">
         <v>2</v>
       </c>
       <c r="P15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/python/Statistics/Results/classification_comparison_1979-2016.xlsx
+++ b/python/Statistics/Results/classification_comparison_1979-2016.xlsx
@@ -14,16 +14,13 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>1979-2016</t>
-  </si>
-  <si>
     <t>RST East</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>ERA 2.5 -Central</t>
+  </si>
+  <si>
+    <t>1979-2016 12Z</t>
   </si>
 </sst>
 </file>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,71 +503,71 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B2">
         <v>823</v>
@@ -626,10 +626,14 @@
       <c r="T2">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUM(B2:T2)</f>
+        <v>10383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>813</v>
@@ -688,122 +692,138 @@
       <c r="T3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f>SUM(B3:T3)</f>
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4">
+        <v>164</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>353</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>81</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>29</v>
+      </c>
+      <c r="U4">
+        <f>SUM(B4:T4)</f>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>38</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>19</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>19</v>
       </c>
-      <c r="S4">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f>SUM(B5:T5)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="U6">
+        <f>SUM(U3:U5)</f>
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B5">
-        <v>164</v>
-      </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>353</v>
-      </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>76</v>
-      </c>
-      <c r="I5">
-        <v>46</v>
-      </c>
-      <c r="J5">
-        <v>81</v>
-      </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>15</v>
-      </c>
-      <c r="T5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B7">
         <v>1292</v>
@@ -862,10 +882,14 @@
       <c r="T7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f>SUM(B7:T7)</f>
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>221</v>
@@ -918,119 +942,131 @@
       <c r="T8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f>SUM(B8:T8)</f>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9">
+        <v>268</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>447</v>
+      </c>
+      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>56</v>
+      </c>
+      <c r="J9">
+        <v>115</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <f>SUM(B9:T9)</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
         <v>54</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>87</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>15</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>17</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>11</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>7</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <v>15</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="U10">
+        <f>SUM(B10:T10)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B10">
-        <v>268</v>
-      </c>
-      <c r="C10">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>447</v>
-      </c>
-      <c r="E10">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>86</v>
-      </c>
-      <c r="I10">
-        <v>56</v>
-      </c>
-      <c r="J10">
-        <v>115</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>9</v>
-      </c>
-      <c r="T10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B12">
         <v>936</v>
@@ -1089,10 +1125,14 @@
       <c r="T12">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f>SUM(B12:T12)</f>
+        <v>10822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>411</v>
@@ -1148,114 +1188,126 @@
       <c r="T13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f>SUM(B13:T13)</f>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>401</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>121</v>
+        <v>581</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I14">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="J14">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R14">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>21</v>
+      </c>
+      <c r="T14">
+        <v>25</v>
+      </c>
+      <c r="U14">
+        <f>SUM(B14:T14)</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>87</v>
+      </c>
+      <c r="C15">
         <v>19</v>
       </c>
-      <c r="S14">
+      <c r="D15">
+        <v>121</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>47</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="T14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>401</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>581</v>
-      </c>
-      <c r="E15">
-        <v>71</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>127</v>
-      </c>
-      <c r="I15">
-        <v>79</v>
-      </c>
-      <c r="J15">
-        <v>164</v>
-      </c>
-      <c r="K15">
-        <v>17</v>
-      </c>
       <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>2</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S15">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <f>SUM(B15:T15)</f>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
